--- a/templates/BookWithTaskPane.xlsx
+++ b/templates/BookWithTaskPane.xlsx
@@ -19,9 +19,7 @@
 <we:webextension xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{00000000-0000-0000-0000-000000000000}">
   <we:reference id="00000000-0000-0000-0000-000000000000" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
-  <we:properties>
-    <we:property name="Office.AutoShowTaskpaneWithDocument" value="true"/>
-  </we:properties>
+  <we:properties/>
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </we:webextension>
